--- a/기획서/ui 기획서 월요일 오후 5시 임시 저장본.xlsx
+++ b/기획서/ui 기획서 월요일 오후 5시 임시 저장본.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김동열\Documents\카카오톡 받은 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA_23\Desktop\GitMiniDocu\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BFFDBB-1CA6-44C6-8AAF-04078593BAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UI - 로딩화면" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="75">
   <si>
     <t>로딩 화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,10 +129,6 @@
     <t>game_2.png</t>
   </si>
   <si>
-    <t>game_1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>money.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,11 +200,139 @@
     <t>크레딧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>타이틀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시작 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경 설정 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">크레딧 버튼 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면 배경 이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"망그러진 곰 키우기"를 "봉숭아 폰트를 사용하여 26pt 크기로 삽입한다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">메인 화면 배경 이미지 main(1) 항목을 1920 x 1080 크기로 삽입한다 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">해당 버튼 클릭 시 인게임 화면으로 이동한다. 좌측 상단에 삽입한다  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">해당 버튼 클릭 시 환경 설정 화면으로 이동한다. 좌측 중앙에 삽입한다  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">해당 버튼 클릭 시 크레딧 화면으로 이동한다. 좌측 하단에 삽입한다  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀/Black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼/White</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">사용 폰트: 봉숭아 틴트 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>색상:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">일시정지 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이 기능 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 코인 보유 수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 게이지 UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game_1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일시 정지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이 기능 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 코인 보유 수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">현재 게이지 UI </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 보유 중인 곰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수집 가능한 코인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭하면 일시 정지 창이 출력 된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">시스템 기획서 참조 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 보유한 코인수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 사용자 게이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곰의 애니메이션 재생중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>터치 시 코인 수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -289,7 +412,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -423,13 +546,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -484,11 +687,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -496,10 +744,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -532,6 +777,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -553,14 +819,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>502024</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>136444</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>171432</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171433</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:to>
@@ -602,13 +868,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>41461</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>90686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>22411</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>9551</xdr:rowOff>
@@ -646,13 +912,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>39659</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>2046</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
@@ -690,13 +956,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -756,13 +1022,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -822,13 +1088,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -888,13 +1154,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -954,13 +1220,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -1012,13 +1278,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -1072,13 +1338,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -1128,13 +1394,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -1184,13 +1450,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>282948</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>87967</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>208989</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>52672</xdr:rowOff>
@@ -1233,14 +1499,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>135592</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>74368</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>88737</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>88738</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>100854</xdr:rowOff>
     </xdr:to>
@@ -1283,13 +1549,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>58271</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>196662</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>277346</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>79001</xdr:rowOff>
@@ -1333,13 +1599,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>22411</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>135457</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>502024</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>156575</xdr:rowOff>
@@ -1392,13 +1658,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>616323</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>282948</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>176775</xdr:rowOff>
@@ -1453,18 +1719,56 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>288772</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>148317</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>405652</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>43542</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1146022" y="4196442"/>
+          <a:ext cx="5860455" cy="2619375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533398</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>34018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>434067</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1479,8 +1783,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1238250" y="5895975"/>
-          <a:ext cx="1238250" cy="800100"/>
+          <a:off x="1390648" y="4619625"/>
+          <a:ext cx="1941740" cy="778328"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1521,16 +1825,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>157841</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>110217</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>186417</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1545,8 +1849,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2828925" y="6915149"/>
-          <a:ext cx="323850" cy="342901"/>
+          <a:off x="5387066" y="4786992"/>
+          <a:ext cx="1400176" cy="508908"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1587,16 +1891,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>149679</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>598715</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1607,18 +1911,16 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="3"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2476500" y="5638800"/>
-          <a:ext cx="3562350" cy="657225"/>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="2183947" y="3966482"/>
+          <a:ext cx="816428" cy="449036"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 4011"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -1647,16 +1949,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>186417</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>157844</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>653142</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>155121</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1667,15 +1969,19 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3162300" y="6667500"/>
-          <a:ext cx="2867025" cy="409575"/>
+          <a:off x="6787242" y="4834619"/>
+          <a:ext cx="466725" cy="206827"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
@@ -1699,6 +2005,880 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>148316</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>72116</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>176892</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>167368</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="직사각형 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA3A4A0B-0669-4EAD-A772-0ED361C47DC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5377541" y="5377541"/>
+          <a:ext cx="1400176" cy="514352"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>176892</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>643617</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>119742</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="연결선: 꺾임 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F4B2B08-DC67-4928-A537-689CDCEA3089}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6777717" y="5425168"/>
+          <a:ext cx="466725" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>138791</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>14967</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>167367</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>110218</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="직사각형 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA3A4A0B-0669-4EAD-A772-0ED361C47DC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5368016" y="5949042"/>
+          <a:ext cx="1400176" cy="514351"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>167367</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>62594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>634092</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>62593</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="연결선: 꺾임 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F4B2B08-DC67-4928-A537-689CDCEA3089}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6768192" y="5996669"/>
+          <a:ext cx="466725" cy="209549"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>312965</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2541815" y="3487510"/>
+          <a:ext cx="706210" cy="360590"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>타이틀</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="직사각형 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8A5699B-458F-433D-855F-80F2C4C0F03B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1133474" y="4181474"/>
+          <a:ext cx="5943602" cy="2657475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>115661</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>140154</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="연결선: 꺾임 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC236E66-573D-4272-8F58-960C14B4799A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="3966483" y="3464378"/>
+          <a:ext cx="855888" cy="578304"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38980</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123505</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>373715</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>64995</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="TextBox 28"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7300392" y="4639476"/>
+          <a:ext cx="1701852" cy="367313"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>게임 시작 버튼</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="TextBox 29"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3980089" y="2954110"/>
+          <a:ext cx="1706335" cy="360590"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>메인 화면 배경 이미지</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>880</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>335615</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>122145</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="TextBox 30"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7262292" y="5335361"/>
+          <a:ext cx="1701852" cy="367313"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>환경 설정 버튼</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38980</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>373715</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>93570</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="TextBox 31"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7300392" y="5945521"/>
+          <a:ext cx="1701852" cy="367314"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>크레딧 버튼</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>272809</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>118614</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="그림 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2501659" y="9182101"/>
+          <a:ext cx="2375142" cy="1061588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>608239</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>77560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="TextBox 33"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2837089" y="10202635"/>
+          <a:ext cx="1706335" cy="360590"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>main(1).png</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>246133</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504094</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>75932</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="그림 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5903983" y="9391650"/>
+          <a:ext cx="1629561" cy="599806"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>189139</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>48985</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="TextBox 35"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5846989" y="10174060"/>
+          <a:ext cx="1706335" cy="360590"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>button(1).png</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1710,13 +2890,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>642258</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>179613</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>16328</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:colOff>16327</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>138666</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1754,13 +2934,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>32845</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>308740</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>166194</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1820,13 +3000,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>59121</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>78827</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>268857</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>4268</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1885,15 +3065,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>604346</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>164224</xdr:rowOff>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>32846</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>188201</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>187872</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1910,8 +3090,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="2824656" y="5695293"/>
-          <a:ext cx="794845" cy="654598"/>
+          <a:off x="2762251" y="4371975"/>
+          <a:ext cx="871045" cy="283122"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1946,13 +3126,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>617483</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>111673</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>486104</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>164224</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1998,62 +3178,18 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>163287</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>40822</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>190374</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="그림 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5277492-DEAE-4F41-AFB5-90584A46C589}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="843644" y="2979964"/>
-          <a:ext cx="4816928" cy="2204231"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>210208</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>118242</xdr:rowOff>
+      <xdr:colOff>456737</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>84624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>643760</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>59121</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>206730</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>25503</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2068,8 +3204,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2461572" y="9123697"/>
-          <a:ext cx="433552" cy="979969"/>
+          <a:off x="2809972" y="8007183"/>
+          <a:ext cx="433552" cy="1005438"/>
           <a:chOff x="-1" y="0"/>
           <a:chExt cx="1552576" cy="3240088"/>
         </a:xfrm>
@@ -2119,7 +3255,7 @@
               <a:noFill/>
               <a:extLst>
                 <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
-                  <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="1219033472">
+                  <ask:lineSketchStyleProps xmlns="" xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="1219033472">
                     <a:custGeom>
                       <a:avLst/>
                       <a:gdLst>
@@ -2420,13 +3556,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>656897</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>45984</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>105104</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:colOff>105103</xdr:colOff>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>189141</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2469,14 +3605,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>492672</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>183931</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>220143</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>180018</xdr:rowOff>
+      <xdr:colOff>220144</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>180019</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2519,13 +3655,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>474280</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>59121</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>269328</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>42698</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2585,13 +3721,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>225973</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>112986</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>105103</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>85396</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2651,13 +3787,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>260131</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>199696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>139262</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>172106</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2717,13 +3853,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>149773</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>95906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>72258</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>105104</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2783,14 +3919,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>661147</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>33617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>165688</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>126208</xdr:rowOff>
+      <xdr:colOff>31217</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>126209</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2827,13 +3963,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>34636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>286258</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:colOff>286257</xdr:colOff>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>205069</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2871,13 +4007,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>492622</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:colOff>358151</xdr:colOff>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>40437</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2915,14 +4051,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>450272</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>138545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>519545</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>44159</xdr:rowOff>
+      <xdr:colOff>519544</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>44160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2959,13 +4095,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>363682</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:colOff>363683</xdr:colOff>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>121316</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3003,14 +4139,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>306923</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>135245</xdr:rowOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>135244</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3047,14 +4183,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>34951</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>86590</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>584039</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>86589</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3091,13 +4227,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>432954</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>564220</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>83648</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3245,7 +4381,7 @@
           </a:solidFill>
           <a:extLst>
             <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
-              <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="1219033472">
+              <ask:lineSketchStyleProps xmlns="" xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="1219033472">
                 <a:prstGeom prst="roundRect">
                   <a:avLst>
                     <a:gd name="adj" fmla="val 13230"/>
@@ -3394,14 +4530,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>238991</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>74539</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>51954</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>187036</xdr:rowOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>187035</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3438,14 +4574,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>640775</xdr:colOff>
-      <xdr:row>198</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>32852</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>34637</xdr:colOff>
-      <xdr:row>208</xdr:row>
-      <xdr:rowOff>177938</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>583725</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>177939</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3482,13 +4618,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>51954</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>103911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>484909</xdr:colOff>
-      <xdr:row>188</xdr:row>
+      <xdr:colOff>350438</xdr:colOff>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>12026</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3526,14 +4662,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>259773</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>51955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>555376</xdr:colOff>
-      <xdr:row>207</xdr:row>
-      <xdr:rowOff>103910</xdr:rowOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3564,6 +4700,352 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>225973</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>99192</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="연결선: 꺾임 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75B04E2A-CB0B-462E-B57D-22A339441AFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2981325" y="3495676"/>
+          <a:ext cx="845098" cy="651641"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>59122</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>41549</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="연결선: 꺾임 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{253F4C01-7FF2-4247-B376-6E3D5EE7926C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2667001" y="5410201"/>
+          <a:ext cx="992571" cy="146323"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>139262</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>185902</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>604630</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>115956</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="연결선: 꺾임 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{253F4C01-7FF2-4247-B376-6E3D5EE7926C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="34" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5812849" y="7308945"/>
+          <a:ext cx="465368" cy="137120"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="TextBox 45"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6372224" y="5657849"/>
+          <a:ext cx="1257301" cy="409576"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>수집 가능한 코인</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>421900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504265</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>71158</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="TextBox 47"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6742018" y="3957917"/>
+          <a:ext cx="1449482" cy="416300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>현재 보유 중인 곰</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>453916</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95906</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="직선 화살표 연결선 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="35" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7477125" y="4238625"/>
+          <a:ext cx="6241" cy="324506"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3831,47 +5313,1785 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:P50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="4.125" customWidth="1"/>
+    <col min="4" max="4" width="2.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="31"/>
+    </row>
+    <row r="3" spans="3:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="34"/>
+    </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="20"/>
+    </row>
+    <row r="5" spans="3:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="18"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="20"/>
+    </row>
+    <row r="6" spans="3:16" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="20"/>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="21">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="20"/>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="20"/>
+    </row>
+    <row r="9" spans="3:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="18"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="20"/>
+    </row>
+    <row r="10" spans="3:16" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="20"/>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="20"/>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="20"/>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="20"/>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C14" s="18"/>
+      <c r="D14" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="20"/>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="20"/>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="20"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="20"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="20"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="20"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C20" s="18"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="20"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C21" s="18"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="20"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="20"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="20"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="20"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="20"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C26" s="18"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="20"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C27" s="18"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="20"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C28" s="18"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="20"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="20"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="20"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C31" s="18"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="20"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="20"/>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C33" s="18"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="20"/>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C34" s="18"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="20"/>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C35" s="18"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="20"/>
+    </row>
+    <row r="36" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C36" s="18"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="20"/>
+    </row>
+    <row r="37" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C37" s="18"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="20"/>
+    </row>
+    <row r="38" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C38" s="18"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="20"/>
+    </row>
+    <row r="39" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C39" s="18"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="39"/>
+      <c r="G39" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="20"/>
+    </row>
+    <row r="40" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C40" s="18"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="36"/>
+      <c r="G40" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="20"/>
+    </row>
+    <row r="41" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C41" s="18"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="36"/>
+      <c r="G41" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="20"/>
+    </row>
+    <row r="42" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C42" s="18"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="36"/>
+      <c r="G42" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="20"/>
+    </row>
+    <row r="43" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C43" s="18"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="36"/>
+      <c r="G43" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="20"/>
+    </row>
+    <row r="44" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C44" s="18"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="42"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="20"/>
+    </row>
+    <row r="45" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C45" s="18"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="20"/>
+    </row>
+    <row r="46" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C46" s="18"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="20"/>
+    </row>
+    <row r="47" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C47" s="18"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="20"/>
+    </row>
+    <row r="48" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C48" s="18"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="20"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C49" s="18"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" s="47"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="K49" s="47"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="20"/>
+    </row>
+    <row r="50" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C50" s="26"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="27"/>
+      <c r="P50" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="C2:P3"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:O39"/>
+    <mergeCell ref="E40:F40"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:O49"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="3" max="3" width="2.25" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="31"/>
+    </row>
+    <row r="3" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="34"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="20"/>
+    </row>
+    <row r="5" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="18"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="20"/>
+    </row>
+    <row r="6" spans="2:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="20"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="21">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="20"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="20"/>
+    </row>
+    <row r="9" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="18"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="20"/>
+    </row>
+    <row r="10" spans="2:15" ht="18" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="20"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="20"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="20"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="18"/>
+      <c r="C14" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="20"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="20"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="20"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="20"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="20"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="20"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="20"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="20"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="20"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="20"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="20"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="20"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="20"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="20"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="20"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="20"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="20"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="20"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B32" s="18"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="20"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="20"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B34" s="18"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="20"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="39"/>
+      <c r="F35" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="20"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="51"/>
+      <c r="F36" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="20"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="51"/>
+      <c r="F37" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="20"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="51"/>
+      <c r="F38" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="20"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B39" s="18"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="51"/>
+      <c r="F39" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="20"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B40" s="18"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="51"/>
+      <c r="F40" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="20"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B41" s="18"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="42"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="20"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B42" s="18"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="20"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="20"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B44" s="18"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="20"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="20"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B46" s="18"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="20"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B47" s="18"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="20"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B48" s="18"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="20"/>
+    </row>
+    <row r="49" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="26"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:N35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="I47:J47"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M155"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K16" sqref="K13:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="2.25" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
+      <c r="B2" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
     </row>
     <row r="5" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
@@ -3894,6 +7114,12 @@
       <c r="C7" s="4">
         <v>0.3888888888888889</v>
       </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C8" s="4"/>
@@ -3922,7 +7148,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
@@ -3930,7 +7156,7 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
@@ -3942,174 +7168,599 @@
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="K15" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-    </row>
-    <row r="27" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="K34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C39" s="24" t="s">
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="K19" s="17"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C31" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="26" t="s">
+      <c r="D31" s="39"/>
+      <c r="E31" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="25"/>
-    </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C40" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="21"/>
-      <c r="E40" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="11"/>
-    </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C41" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="11"/>
-    </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C42" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="21"/>
-      <c r="E42" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="11"/>
-    </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C43" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="21"/>
-      <c r="E43" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="13"/>
-    </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C44" s="27" t="s">
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="39"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C32" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="51"/>
+      <c r="E32" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="11"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C33" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="51"/>
+      <c r="E33" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="11"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C34" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="51"/>
+      <c r="E34" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="11"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C35" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="51"/>
+      <c r="E35" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="13"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C36" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="51"/>
+      <c r="E36" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="13"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C37" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="51"/>
+      <c r="E37" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="11"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C38" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="28"/>
-      <c r="M44" s="14"/>
-    </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C45" s="29"/>
-      <c r="D45" s="30"/>
-      <c r="M45" s="14"/>
-    </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C46" s="29"/>
-      <c r="D46" s="30"/>
-      <c r="M46" s="14"/>
-    </row>
-    <row r="47" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C47" s="29"/>
-      <c r="D47" s="30"/>
-      <c r="M47" s="14"/>
-    </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C48" s="29"/>
-      <c r="D48" s="30"/>
-      <c r="M48" s="14"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C49" s="31"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="F49" s="33"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="I49" s="33"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="16"/>
-    </row>
+      <c r="D38" s="42"/>
+      <c r="M38" s="14"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C39" s="43"/>
+      <c r="D39" s="44"/>
+      <c r="M39" s="14"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C40" s="43"/>
+      <c r="D40" s="44"/>
+      <c r="M40" s="14"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C41" s="43"/>
+      <c r="D41" s="44"/>
+      <c r="M41" s="14"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C42" s="43"/>
+      <c r="D42" s="44"/>
+      <c r="J42" t="s">
+        <v>25</v>
+      </c>
+      <c r="M42" s="14"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C43" s="45"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="47"/>
+      <c r="G43" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="16"/>
+    </row>
+    <row r="47" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="1"/>
+      <c r="C47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C71" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="39"/>
+      <c r="E71" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="40"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="40"/>
+      <c r="J71" s="40"/>
+      <c r="K71" s="40"/>
+      <c r="L71" s="40"/>
+      <c r="M71" s="39"/>
+    </row>
+    <row r="72" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C72" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D72" s="36"/>
+      <c r="E72" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="11"/>
+    </row>
+    <row r="73" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C73" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" s="36"/>
+      <c r="E73" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="13"/>
+    </row>
+    <row r="74" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C74" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="42"/>
+      <c r="M74" s="14"/>
+    </row>
+    <row r="75" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C75" s="43"/>
+      <c r="D75" s="44"/>
+      <c r="M75" s="14"/>
+    </row>
+    <row r="76" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C76" s="43"/>
+      <c r="D76" s="44"/>
+      <c r="M76" s="14"/>
+    </row>
+    <row r="77" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C77" s="43"/>
+      <c r="D77" s="44"/>
+      <c r="M77" s="14"/>
+    </row>
+    <row r="78" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C78" s="43"/>
+      <c r="D78" s="44"/>
+      <c r="M78" s="14"/>
+    </row>
+    <row r="79" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C79" s="45"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="47"/>
+      <c r="F79" s="47"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="47"/>
+      <c r="I79" s="47"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="16"/>
+    </row>
+    <row r="83" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="1"/>
+      <c r="C83" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="2:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B86" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C106" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" s="39"/>
+      <c r="E106" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="40"/>
+      <c r="G106" s="40"/>
+      <c r="H106" s="40"/>
+      <c r="I106" s="40"/>
+      <c r="J106" s="40"/>
+      <c r="K106" s="40"/>
+      <c r="L106" s="40"/>
+      <c r="M106" s="39"/>
+    </row>
+    <row r="107" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C107" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D107" s="36"/>
+      <c r="E107" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
+      <c r="I107" s="10"/>
+      <c r="J107" s="10"/>
+      <c r="K107" s="10"/>
+      <c r="L107" s="10"/>
+      <c r="M107" s="11"/>
+    </row>
+    <row r="108" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C108" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D108" s="36"/>
+      <c r="E108" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="12"/>
+      <c r="L108" s="12"/>
+      <c r="M108" s="13"/>
+    </row>
+    <row r="109" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C109" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D109" s="42"/>
+      <c r="M109" s="14"/>
+    </row>
+    <row r="110" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C110" s="43"/>
+      <c r="D110" s="44"/>
+      <c r="M110" s="14"/>
+    </row>
+    <row r="111" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C111" s="43"/>
+      <c r="D111" s="44"/>
+      <c r="M111" s="14"/>
+    </row>
+    <row r="112" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C112" s="43"/>
+      <c r="D112" s="44"/>
+      <c r="M112" s="14"/>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C113" s="43"/>
+      <c r="D113" s="44"/>
+      <c r="M113" s="14"/>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C114" s="45"/>
+      <c r="D114" s="46"/>
+      <c r="E114" s="47"/>
+      <c r="F114" s="47"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="47"/>
+      <c r="I114" s="47"/>
+      <c r="J114" s="15"/>
+      <c r="K114" s="15"/>
+      <c r="L114" s="15"/>
+      <c r="M114" s="16"/>
+    </row>
+    <row r="118" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B118" s="1"/>
+      <c r="C118" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+      <c r="L118" s="3"/>
+      <c r="M118" s="3"/>
+    </row>
+    <row r="119" spans="2:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="120" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B120" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C142" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142" s="39"/>
+      <c r="E142" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F142" s="40"/>
+      <c r="G142" s="40"/>
+      <c r="H142" s="40"/>
+      <c r="I142" s="40"/>
+      <c r="J142" s="40"/>
+      <c r="K142" s="40"/>
+      <c r="L142" s="40"/>
+      <c r="M142" s="39"/>
+    </row>
+    <row r="143" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C143" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D143" s="36"/>
+      <c r="E143" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
+      <c r="H143" s="10"/>
+      <c r="I143" s="10"/>
+      <c r="J143" s="10"/>
+      <c r="K143" s="10"/>
+      <c r="L143" s="10"/>
+      <c r="M143" s="11"/>
+    </row>
+    <row r="144" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C144" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D144" s="36"/>
+      <c r="E144" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F144" s="12"/>
+      <c r="G144" s="12"/>
+      <c r="H144" s="12"/>
+      <c r="I144" s="12"/>
+      <c r="J144" s="12"/>
+      <c r="K144" s="12"/>
+      <c r="L144" s="12"/>
+      <c r="M144" s="13"/>
+    </row>
+    <row r="145" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C145" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D145" s="42"/>
+      <c r="M145" s="14"/>
+    </row>
+    <row r="146" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C146" s="43"/>
+      <c r="D146" s="44"/>
+      <c r="M146" s="14"/>
+    </row>
+    <row r="147" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C147" s="43"/>
+      <c r="D147" s="44"/>
+      <c r="M147" s="14"/>
+    </row>
+    <row r="148" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C148" s="43"/>
+      <c r="D148" s="44"/>
+      <c r="M148" s="14"/>
+    </row>
+    <row r="149" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C149" s="43"/>
+      <c r="D149" s="44"/>
+      <c r="M149" s="14"/>
+    </row>
+    <row r="150" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C150" s="45"/>
+      <c r="D150" s="46"/>
+      <c r="E150" s="47"/>
+      <c r="F150" s="47"/>
+      <c r="G150" s="15"/>
+      <c r="H150" s="47"/>
+      <c r="I150" s="47"/>
+      <c r="J150" s="15"/>
+      <c r="K150" s="15"/>
+      <c r="L150" s="15"/>
+      <c r="M150" s="16"/>
+    </row>
+    <row r="154" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B154" s="1"/>
+      <c r="C154" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
+      <c r="H154" s="3"/>
+      <c r="I154" s="3"/>
+      <c r="J154" s="3"/>
+      <c r="K154" s="3"/>
+      <c r="L154" s="3"/>
+      <c r="M154" s="3"/>
+    </row>
+    <row r="155" spans="2:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C41:D41"/>
+  <mergeCells count="33">
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:M71"/>
     <mergeCell ref="B2:M3"/>
     <mergeCell ref="K15:M15"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:M39"/>
-    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:M31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C38:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:M106"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C109:D114"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="E142:M142"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="C145:D150"/>
+    <mergeCell ref="E150:F150"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4118,12 +7769,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B7E621-38B7-42D0-841C-3BF4622F0BC5}">
-  <dimension ref="B2:M49"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4132,34 +7783,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
+      <c r="B2" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
     </row>
     <row r="5" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
@@ -4182,6 +7833,12 @@
       <c r="C7" s="4">
         <v>0.3888888888888889</v>
       </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C8" s="4"/>
@@ -4210,7 +7867,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
@@ -4218,7 +7875,7 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
@@ -4230,991 +7887,9 @@
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-    </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C39" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="25"/>
-    </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C40" s="20"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="11"/>
-    </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C41" s="20"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="11"/>
-    </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C42" s="20"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="11"/>
-    </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C43" s="20"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="13"/>
-    </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C44" s="27"/>
-      <c r="D44" s="28"/>
-      <c r="M44" s="14"/>
-    </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C45" s="29"/>
-      <c r="D45" s="30"/>
-      <c r="M45" s="14"/>
-    </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C46" s="29"/>
-      <c r="D46" s="30"/>
-      <c r="M46" s="14"/>
-    </row>
-    <row r="47" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C47" s="29"/>
-      <c r="D47" s="30"/>
-      <c r="M47" s="14"/>
-    </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C48" s="29"/>
-      <c r="D48" s="30"/>
-      <c r="M48" s="14"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C49" s="31"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="B2:M3"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:M39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="H49:I49"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC08783-F399-4337-94ED-CAC63BC59D60}">
-  <dimension ref="B2:M167"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A117" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="2.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-    </row>
-    <row r="5" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="2:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C7" s="4">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="1"/>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="2:13" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-    </row>
-    <row r="27" spans="11:11" x14ac:dyDescent="0.3">
-      <c r="K27" s="17"/>
-    </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C39" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="25"/>
-    </row>
-    <row r="40" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C40" s="20"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="11"/>
-    </row>
-    <row r="41" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C41" s="20"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="11"/>
-    </row>
-    <row r="42" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C42" s="20"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="11"/>
-    </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C43" s="20"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="13"/>
-    </row>
-    <row r="44" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C44" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="28"/>
-      <c r="M44" s="14"/>
-    </row>
-    <row r="45" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C45" s="29"/>
-      <c r="D45" s="30"/>
-      <c r="M45" s="14"/>
-    </row>
-    <row r="46" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C46" s="29"/>
-      <c r="D46" s="30"/>
-      <c r="M46" s="14"/>
-    </row>
-    <row r="47" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C47" s="29"/>
-      <c r="D47" s="30"/>
-      <c r="M47" s="14"/>
-    </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C48" s="29"/>
-      <c r="D48" s="30"/>
-      <c r="J48" t="s">
-        <v>26</v>
-      </c>
-      <c r="M48" s="14"/>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C49" s="31"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="F49" s="33"/>
-      <c r="G49" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="16"/>
-    </row>
-    <row r="53" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="1"/>
-      <c r="C53" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="2:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B56" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C77" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" s="25"/>
-      <c r="E77" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="26"/>
-      <c r="I77" s="26"/>
-      <c r="J77" s="26"/>
-      <c r="K77" s="26"/>
-      <c r="L77" s="26"/>
-      <c r="M77" s="25"/>
-    </row>
-    <row r="78" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C78" s="20"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="10"/>
-      <c r="M78" s="11"/>
-    </row>
-    <row r="79" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C79" s="20"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="10"/>
-      <c r="K79" s="10"/>
-      <c r="L79" s="10"/>
-      <c r="M79" s="11"/>
-    </row>
-    <row r="80" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C80" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D80" s="21"/>
-      <c r="E80" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="10"/>
-      <c r="K80" s="10"/>
-      <c r="L80" s="10"/>
-      <c r="M80" s="11"/>
-    </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C81" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D81" s="21"/>
-      <c r="E81" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="12"/>
-      <c r="M81" s="13"/>
-    </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C82" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D82" s="28"/>
-      <c r="M82" s="14"/>
-    </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C83" s="29"/>
-      <c r="D83" s="30"/>
-      <c r="M83" s="14"/>
-    </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C84" s="29"/>
-      <c r="D84" s="30"/>
-      <c r="M84" s="14"/>
-    </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C85" s="29"/>
-      <c r="D85" s="30"/>
-      <c r="M85" s="14"/>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C86" s="29"/>
-      <c r="D86" s="30"/>
-      <c r="M86" s="14"/>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C87" s="31"/>
-      <c r="D87" s="32"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="33"/>
-      <c r="I87" s="33"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
-      <c r="M87" s="16"/>
-    </row>
-    <row r="91" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="1"/>
-      <c r="C91" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="2:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B94" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C114" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D114" s="25"/>
-      <c r="E114" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F114" s="26"/>
-      <c r="G114" s="26"/>
-      <c r="H114" s="26"/>
-      <c r="I114" s="26"/>
-      <c r="J114" s="26"/>
-      <c r="K114" s="26"/>
-      <c r="L114" s="26"/>
-      <c r="M114" s="25"/>
-    </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C115" s="20"/>
-      <c r="D115" s="21"/>
-      <c r="E115" s="18"/>
-      <c r="F115" s="10"/>
-      <c r="G115" s="10"/>
-      <c r="H115" s="10"/>
-      <c r="I115" s="10"/>
-      <c r="J115" s="10"/>
-      <c r="K115" s="10"/>
-      <c r="L115" s="10"/>
-      <c r="M115" s="11"/>
-    </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C116" s="20"/>
-      <c r="D116" s="21"/>
-      <c r="E116" s="19"/>
-      <c r="F116" s="10"/>
-      <c r="G116" s="10"/>
-      <c r="H116" s="10"/>
-      <c r="I116" s="10"/>
-      <c r="J116" s="10"/>
-      <c r="K116" s="10"/>
-      <c r="L116" s="10"/>
-      <c r="M116" s="11"/>
-    </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C117" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D117" s="21"/>
-      <c r="E117" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F117" s="10"/>
-      <c r="G117" s="10"/>
-      <c r="H117" s="10"/>
-      <c r="I117" s="10"/>
-      <c r="J117" s="10"/>
-      <c r="K117" s="10"/>
-      <c r="L117" s="10"/>
-      <c r="M117" s="11"/>
-    </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C118" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D118" s="21"/>
-      <c r="E118" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F118" s="12"/>
-      <c r="G118" s="12"/>
-      <c r="H118" s="12"/>
-      <c r="I118" s="12"/>
-      <c r="J118" s="12"/>
-      <c r="K118" s="12"/>
-      <c r="L118" s="12"/>
-      <c r="M118" s="13"/>
-    </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C119" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D119" s="28"/>
-      <c r="M119" s="14"/>
-    </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C120" s="29"/>
-      <c r="D120" s="30"/>
-      <c r="M120" s="14"/>
-    </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C121" s="29"/>
-      <c r="D121" s="30"/>
-      <c r="M121" s="14"/>
-    </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C122" s="29"/>
-      <c r="D122" s="30"/>
-      <c r="M122" s="14"/>
-    </row>
-    <row r="123" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C123" s="29"/>
-      <c r="D123" s="30"/>
-      <c r="M123" s="14"/>
-    </row>
-    <row r="124" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C124" s="31"/>
-      <c r="D124" s="32"/>
-      <c r="E124" s="33"/>
-      <c r="F124" s="33"/>
-      <c r="G124" s="15"/>
-      <c r="H124" s="33"/>
-      <c r="I124" s="33"/>
-      <c r="J124" s="15"/>
-      <c r="K124" s="15"/>
-      <c r="L124" s="15"/>
-      <c r="M124" s="16"/>
-    </row>
-    <row r="128" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B128" s="1"/>
-      <c r="C128" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="3"/>
-      <c r="H128" s="3"/>
-      <c r="I128" s="3"/>
-      <c r="J128" s="3"/>
-      <c r="K128" s="3"/>
-      <c r="L128" s="3"/>
-      <c r="M128" s="3"/>
-    </row>
-    <row r="129" spans="2:3" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B130" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="152" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C152" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D152" s="25"/>
-      <c r="E152" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F152" s="26"/>
-      <c r="G152" s="26"/>
-      <c r="H152" s="26"/>
-      <c r="I152" s="26"/>
-      <c r="J152" s="26"/>
-      <c r="K152" s="26"/>
-      <c r="L152" s="26"/>
-      <c r="M152" s="25"/>
-    </row>
-    <row r="153" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C153" s="20"/>
-      <c r="D153" s="21"/>
-      <c r="E153" s="18"/>
-      <c r="F153" s="10"/>
-      <c r="G153" s="10"/>
-      <c r="H153" s="10"/>
-      <c r="I153" s="10"/>
-      <c r="J153" s="10"/>
-      <c r="K153" s="10"/>
-      <c r="L153" s="10"/>
-      <c r="M153" s="11"/>
-    </row>
-    <row r="154" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C154" s="20"/>
-      <c r="D154" s="21"/>
-      <c r="E154" s="19"/>
-      <c r="F154" s="10"/>
-      <c r="G154" s="10"/>
-      <c r="H154" s="10"/>
-      <c r="I154" s="10"/>
-      <c r="J154" s="10"/>
-      <c r="K154" s="10"/>
-      <c r="L154" s="10"/>
-      <c r="M154" s="11"/>
-    </row>
-    <row r="155" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C155" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D155" s="21"/>
-      <c r="E155" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F155" s="10"/>
-      <c r="G155" s="10"/>
-      <c r="H155" s="10"/>
-      <c r="I155" s="10"/>
-      <c r="J155" s="10"/>
-      <c r="K155" s="10"/>
-      <c r="L155" s="10"/>
-      <c r="M155" s="11"/>
-    </row>
-    <row r="156" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C156" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D156" s="21"/>
-      <c r="E156" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F156" s="12"/>
-      <c r="G156" s="12"/>
-      <c r="H156" s="12"/>
-      <c r="I156" s="12"/>
-      <c r="J156" s="12"/>
-      <c r="K156" s="12"/>
-      <c r="L156" s="12"/>
-      <c r="M156" s="13"/>
-    </row>
-    <row r="157" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C157" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D157" s="28"/>
-      <c r="M157" s="14"/>
-    </row>
-    <row r="158" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C158" s="29"/>
-      <c r="D158" s="30"/>
-      <c r="M158" s="14"/>
-    </row>
-    <row r="159" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C159" s="29"/>
-      <c r="D159" s="30"/>
-      <c r="M159" s="14"/>
-    </row>
-    <row r="160" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C160" s="29"/>
-      <c r="D160" s="30"/>
-      <c r="M160" s="14"/>
-    </row>
-    <row r="161" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C161" s="29"/>
-      <c r="D161" s="30"/>
-      <c r="M161" s="14"/>
-    </row>
-    <row r="162" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C162" s="31"/>
-      <c r="D162" s="32"/>
-      <c r="E162" s="33"/>
-      <c r="F162" s="33"/>
-      <c r="G162" s="15"/>
-      <c r="H162" s="33"/>
-      <c r="I162" s="33"/>
-      <c r="J162" s="15"/>
-      <c r="K162" s="15"/>
-      <c r="L162" s="15"/>
-      <c r="M162" s="16"/>
-    </row>
-    <row r="166" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B166" s="1"/>
-      <c r="C166" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
-      <c r="F166" s="3"/>
-      <c r="G166" s="3"/>
-      <c r="H166" s="3"/>
-      <c r="I166" s="3"/>
-      <c r="J166" s="3"/>
-      <c r="K166" s="3"/>
-      <c r="L166" s="3"/>
-      <c r="M166" s="3"/>
-    </row>
-    <row r="167" spans="2:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:M77"/>
-    <mergeCell ref="B2:M3"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:M39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="E114:M114"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C119:D124"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="E152:M152"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="C157:D162"/>
-    <mergeCell ref="E162:F162"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE3875B-42EE-46FB-9946-0194DD532AF9}">
-  <dimension ref="B2:M15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="2.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-    </row>
-    <row r="5" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="2:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C7" s="4">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="1"/>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="2:13" ht="18" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5227,10 +7902,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04A8A09-91E4-4959-A4EE-2CB7E1A45C63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
@@ -5240,34 +7915,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
+      <c r="B2" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
     </row>
     <row r="5" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
@@ -5291,10 +7966,10 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
         <v>27</v>
-      </c>
-      <c r="I7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
@@ -5324,7 +7999,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
@@ -5332,7 +8007,7 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
@@ -5344,9 +8019,9 @@
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/기획서/ui 기획서 월요일 오후 5시 임시 저장본.xlsx
+++ b/기획서/ui 기획서 월요일 오후 5시 임시 저장본.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA_23\Desktop\GitMiniDocu\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김동열\Documents\MiniProjectDocu\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF84EF01-D5C3-4FF5-B4E7-F1966BEE6BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="UI - 로딩화면" sheetId="1" r:id="rId1"/>
-    <sheet name="UI - 메인화면" sheetId="2" r:id="rId2"/>
-    <sheet name="UI - 인게임" sheetId="3" r:id="rId3"/>
-    <sheet name="UI - 환경설정" sheetId="4" r:id="rId4"/>
-    <sheet name="UI - 크레딧" sheetId="5" r:id="rId5"/>
+    <sheet name="UI 전체 플로우" sheetId="6" r:id="rId1"/>
+    <sheet name="UI - 로딩화면" sheetId="1" r:id="rId2"/>
+    <sheet name="UI - 메인화면" sheetId="2" r:id="rId3"/>
+    <sheet name="UI - 인게임" sheetId="3" r:id="rId4"/>
+    <sheet name="UI - 환경설정" sheetId="4" r:id="rId5"/>
+    <sheet name="UI - 크레딧" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="79">
   <si>
     <t>로딩 화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,11 +330,27 @@
     <t>터치 시 코인 수집</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">환경 설정 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이어 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이어 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작자 크레딧과 서브 쿠키 영상을 보여줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -632,7 +650,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -690,26 +708,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -720,40 +720,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -777,25 +753,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -816,6 +807,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>210801</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>115079</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D7E832F-CE6A-6679-7735-AC120F4B2580}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1533525" y="609600"/>
+          <a:ext cx="8964276" cy="5582429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1717,7 +1757,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1734,7 +1774,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1775,7 +1821,7 @@
         <xdr:cNvPr id="6" name="직사각형 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8A5699B-458F-433D-855F-80F2C4C0F03B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1841,7 +1887,7 @@
         <xdr:cNvPr id="7" name="직사각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA3A4A0B-0669-4EAD-A772-0ED361C47DC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1907,7 +1953,7 @@
         <xdr:cNvPr id="10" name="연결선: 꺾임 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC236E66-573D-4272-8F58-960C14B4799A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1965,7 +2011,7 @@
         <xdr:cNvPr id="11" name="연결선: 꺾임 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F4B2B08-DC67-4928-A537-689CDCEA3089}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2025,7 +2071,7 @@
         <xdr:cNvPr id="16" name="직사각형 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA3A4A0B-0669-4EAD-A772-0ED361C47DC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2091,7 +2137,7 @@
         <xdr:cNvPr id="17" name="연결선: 꺾임 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F4B2B08-DC67-4928-A537-689CDCEA3089}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2151,7 +2197,7 @@
         <xdr:cNvPr id="18" name="직사각형 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA3A4A0B-0669-4EAD-A772-0ED361C47DC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2217,7 +2263,7 @@
         <xdr:cNvPr id="19" name="연결선: 꺾임 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F4B2B08-DC67-4928-A537-689CDCEA3089}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2274,7 +2320,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="TextBox 23"/>
+        <xdr:cNvPr id="24" name="TextBox 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2337,7 +2389,7 @@
         <xdr:cNvPr id="25" name="직사각형 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8A5699B-458F-433D-855F-80F2C4C0F03B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2403,7 +2455,7 @@
         <xdr:cNvPr id="27" name="연결선: 꺾임 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC236E66-573D-4272-8F58-960C14B4799A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2460,7 +2512,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="TextBox 28"/>
+        <xdr:cNvPr id="29" name="TextBox 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2520,7 +2578,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="TextBox 29"/>
+        <xdr:cNvPr id="30" name="TextBox 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2580,7 +2644,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="TextBox 30"/>
+        <xdr:cNvPr id="31" name="TextBox 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2640,7 +2710,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="TextBox 31"/>
+        <xdr:cNvPr id="32" name="TextBox 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2700,7 +2776,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="그림 32"/>
+        <xdr:cNvPr id="33" name="그림 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2738,7 +2820,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="TextBox 33"/>
+        <xdr:cNvPr id="34" name="TextBox 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2798,7 +2886,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="그림 34"/>
+        <xdr:cNvPr id="35" name="그림 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2836,7 +2930,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="TextBox 35"/>
+        <xdr:cNvPr id="36" name="TextBox 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2884,7 +2984,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2904,7 +3004,7 @@
         <xdr:cNvPr id="23" name="그림 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DE18D93-BD47-47EB-B6DD-0D9521B478A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2948,7 +3048,7 @@
         <xdr:cNvPr id="6" name="직사각형 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7ED79B3-3ADA-4B5C-9B1D-DD28EFE5875D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3014,7 +3114,7 @@
         <xdr:cNvPr id="8" name="직사각형 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DDEDF45-4366-480D-83A1-154C0748C88A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3080,7 +3180,7 @@
         <xdr:cNvPr id="10" name="연결선: 꺾임 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75B04E2A-CB0B-462E-B57D-22A339441AFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3140,7 +3240,7 @@
         <xdr:cNvPr id="12" name="연결선: 꺾임 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{253F4C01-7FF2-4247-B376-6E3D5EE7926C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3196,7 +3296,7 @@
         <xdr:cNvPr id="24" name="그룹 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB03B416-7241-4401-A0E1-B50D15D1D54C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3215,7 +3315,7 @@
           <xdr:cNvPr id="25" name="그룹 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6648BFF6-9694-A386-BD81-F97401932090}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3234,7 +3334,7 @@
             <xdr:cNvPr id="27" name="직사각형 26">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E6438A9-58B2-6EF2-6491-2AB530E70DA3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3255,7 +3355,7 @@
               <a:noFill/>
               <a:extLst>
                 <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
-                  <ask:lineSketchStyleProps xmlns="" xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="1219033472">
+                  <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="1219033472">
                     <a:custGeom>
                       <a:avLst/>
                       <a:gdLst>
@@ -3476,7 +3576,7 @@
             <xdr:cNvPr id="28" name="직선 연결선 27">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21571924-D035-F2C8-A77B-69CB732CA928}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3519,7 +3619,7 @@
           <xdr:cNvPr id="26" name="그림 25" descr="텍스트, 활을사용하는현악기이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F606D610-4DBF-AAD6-6D9C-267AF3C884D6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3570,7 +3670,7 @@
         <xdr:cNvPr id="29" name="그림 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F279A03-1311-40EE-9C73-3B7300AA1987}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3619,7 +3719,7 @@
         <xdr:cNvPr id="30" name="그림 29" descr="텍스트, 개체, 동전이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D92198D-08B9-4B8A-8C9D-14B2B3DBABAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3669,7 +3769,7 @@
         <xdr:cNvPr id="32" name="직사각형 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C40C41B2-EB8D-4CCD-8F3B-FEC1BBF1AAFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3735,7 +3835,7 @@
         <xdr:cNvPr id="33" name="직사각형 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A90D9556-C8FD-4CC2-8CB2-F7A091CB562B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3801,7 +3901,7 @@
         <xdr:cNvPr id="34" name="직사각형 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4342412E-7392-4654-BE53-E3EA5CA82645}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3867,7 +3967,7 @@
         <xdr:cNvPr id="35" name="직사각형 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A957CCFC-FF6D-4A66-8BC3-7211537D7C29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3933,7 +4033,7 @@
         <xdr:cNvPr id="40" name="그림 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DC5F19E-6EE9-422D-B2F4-D589BFDE4FA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3977,7 +4077,7 @@
         <xdr:cNvPr id="57" name="그림 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63C46A0E-C77A-5A86-D86F-7C5B927444D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000039000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4021,7 +4121,7 @@
         <xdr:cNvPr id="58" name="그림 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B597E6A6-840D-4C4F-9CE3-99EB7B2CB443}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4065,7 +4165,7 @@
         <xdr:cNvPr id="60" name="그림 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{008BB720-F0DF-CD99-B412-E0C676D3C691}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4109,7 +4209,7 @@
         <xdr:cNvPr id="61" name="그림 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F12C18F-1C96-4CF8-A6F3-0AA1888F9541}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4153,7 +4253,7 @@
         <xdr:cNvPr id="62" name="그림 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C55A658-8E8E-459E-8AD8-85868189DB4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4197,7 +4297,7 @@
         <xdr:cNvPr id="63" name="그림 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7692E07F-EA61-4AA0-B77E-FD59E6602EFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4241,7 +4341,7 @@
         <xdr:cNvPr id="67" name="사각형: 둥근 모서리 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{370DCA3F-9C11-3BA2-0D12-9F51434FC1A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4381,7 +4481,7 @@
           </a:solidFill>
           <a:extLst>
             <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
-              <ask:lineSketchStyleProps xmlns="" xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="1219033472">
+              <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="1219033472">
                 <a:prstGeom prst="roundRect">
                   <a:avLst>
                     <a:gd name="adj" fmla="val 13230"/>
@@ -4544,7 +4644,7 @@
         <xdr:cNvPr id="77" name="그림 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D66D603-A206-4044-9EE4-E7F433F432DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4588,7 +4688,7 @@
         <xdr:cNvPr id="78" name="그림 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{248DBADA-B1A3-6661-4CA2-0CFDB78411BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4632,7 +4732,7 @@
         <xdr:cNvPr id="79" name="그림 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8577357D-291D-4587-C091-5590FE1CCE9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4676,7 +4776,7 @@
         <xdr:cNvPr id="80" name="그림 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{791A9944-FE98-C3B2-95F2-715AACF444B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000050000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4720,7 +4820,7 @@
         <xdr:cNvPr id="31" name="연결선: 꺾임 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75B04E2A-CB0B-462E-B57D-22A339441AFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4780,7 +4880,7 @@
         <xdr:cNvPr id="36" name="연결선: 꺾임 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{253F4C01-7FF2-4247-B376-6E3D5EE7926C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4838,7 +4938,7 @@
         <xdr:cNvPr id="37" name="연결선: 꺾임 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{253F4C01-7FF2-4247-B376-6E3D5EE7926C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4893,7 +4993,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="TextBox 45"/>
+        <xdr:cNvPr id="46" name="TextBox 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4952,7 +5058,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="TextBox 47"/>
+        <xdr:cNvPr id="48" name="TextBox 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5011,7 +5123,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="직선 화살표 연결선 17"/>
+        <xdr:cNvPr id="18" name="직선 화살표 연결선 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="35" idx="0"/>
         </xdr:cNvCxnSpPr>
@@ -5046,6 +5164,465 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>616324</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>199947</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71F95F83-EF5C-A41B-1985-63FA6F834488}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="851647" y="3238501"/>
+          <a:ext cx="7451912" cy="3606534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>175338</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>171609</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="타원 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C845AB16-4810-BA59-F997-FC7EAE22D9B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6320118" y="8348382"/>
+          <a:ext cx="175338" cy="171609"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="663300"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>478035</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>141252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>570841</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>141252</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="직선 연결선 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7FF8DE0-0D2E-F635-2959-E05A2683ECE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6114594" y="8915458"/>
+          <a:ext cx="1459923" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="663300"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>459441</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>649941</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>111881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="그림 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{813688E5-B40A-5E7C-782A-139734D9A996}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2678206" y="8090648"/>
+          <a:ext cx="2241176" cy="1008351"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>30780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE3D52B6-85D2-CB58-F8A1-28357BFB4E8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="3209925"/>
+          <a:ext cx="7239000" cy="3383580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>212358</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>143599</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{963A248A-4380-F312-75D2-87A19FC0FD96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="8286750"/>
+          <a:ext cx="3812808" cy="3239224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>508839</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>1588</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3" descr="텍스트이(가) 표시된 사진&#10;&#10;자동 생성된 설명">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F897CFA6-1D61-4AA2-ACDF-52BF7E46739C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="8353425"/>
+          <a:ext cx="3404439" cy="3240088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5313,7 +5890,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6F1F4A-FA1A-4CE7-BE1B-FA9859F60C94}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:P50"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -5329,54 +5922,42 @@
   <sheetData>
     <row r="1" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="31"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="36"/>
     </row>
     <row r="3" spans="3:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="34"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="39"/>
     </row>
     <row r="4" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="20"/>
+      <c r="P4" s="19"/>
     </row>
     <row r="5" spans="3:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="18"/>
@@ -5394,57 +5975,23 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="20"/>
+      <c r="P5" s="19"/>
     </row>
     <row r="6" spans="3:16" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="20"/>
+      <c r="P6" s="19"/>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="21">
+      <c r="E7" s="4">
         <v>0.3888888888888889</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="20"/>
+      <c r="P7" s="19"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="20"/>
+      <c r="E8" s="4"/>
+      <c r="P8" s="19"/>
     </row>
     <row r="9" spans="3:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="18"/>
@@ -5462,521 +6009,185 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="20"/>
+      <c r="P9" s="19"/>
     </row>
     <row r="10" spans="3:16" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="20"/>
+      <c r="E10" s="5"/>
+      <c r="P10" s="19"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="20"/>
+      <c r="P11" s="19"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" t="s">
         <v>0</v>
       </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="20"/>
+      <c r="P12" s="19"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="20"/>
+      <c r="P13" s="19"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C14" s="18"/>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="20"/>
+      <c r="P14" s="19"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="37" t="s">
+      <c r="M15" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="20"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="19"/>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="20"/>
+      <c r="P16" s="19"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="20"/>
+      <c r="P17" s="19"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="20"/>
+      <c r="P18" s="19"/>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="20"/>
+      <c r="P19" s="19"/>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="20"/>
+      <c r="P20" s="19"/>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="20"/>
+      <c r="P21" s="19"/>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="20"/>
+      <c r="P22" s="19"/>
     </row>
     <row r="23" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="20"/>
+      <c r="P23" s="19"/>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="20"/>
+      <c r="P24" s="19"/>
     </row>
     <row r="25" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="20"/>
+      <c r="P25" s="19"/>
     </row>
     <row r="26" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="20"/>
+      <c r="P26" s="19"/>
     </row>
     <row r="27" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C27" s="18"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19" t="s">
+      <c r="M27" t="s">
         <v>9</v>
       </c>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="20"/>
+      <c r="P27" s="19"/>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C28" s="18"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="20"/>
+      <c r="P28" s="19"/>
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19" t="s">
+      <c r="M29" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="20"/>
+      <c r="P29" s="19"/>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="20"/>
+      <c r="P30" s="19"/>
     </row>
     <row r="31" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C31" s="18"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="20"/>
+      <c r="P31" s="19"/>
     </row>
     <row r="32" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C32" s="18"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19" t="s">
+      <c r="M32" t="s">
         <v>11</v>
       </c>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="20"/>
+      <c r="P32" s="19"/>
     </row>
     <row r="33" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C33" s="18"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="20"/>
+      <c r="P33" s="19"/>
     </row>
     <row r="34" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19" t="s">
+      <c r="M34" t="s">
         <v>12</v>
       </c>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="20"/>
+      <c r="P34" s="19"/>
     </row>
     <row r="35" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="20"/>
+      <c r="P35" s="19"/>
     </row>
     <row r="36" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C36" s="18"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="20"/>
+      <c r="P36" s="19"/>
     </row>
     <row r="37" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C37" s="18"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="20"/>
+      <c r="P37" s="19"/>
     </row>
     <row r="38" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C38" s="18"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="20"/>
+      <c r="P38" s="19"/>
     </row>
     <row r="39" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C39" s="18"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="38" t="s">
+      <c r="E39" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="39"/>
-      <c r="G39" s="40" t="s">
+      <c r="F39" s="42"/>
+      <c r="G39" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="20"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="19"/>
     </row>
     <row r="40" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C40" s="18"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="35" t="s">
+      <c r="E40" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="36"/>
+      <c r="F40" s="26"/>
       <c r="G40" s="9" t="s">
         <v>16</v>
       </c>
@@ -5988,15 +6199,14 @@
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
       <c r="O40" s="11"/>
-      <c r="P40" s="20"/>
+      <c r="P40" s="19"/>
     </row>
     <row r="41" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C41" s="18"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="35" t="s">
+      <c r="E41" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="36"/>
+      <c r="F41" s="26"/>
       <c r="G41" s="9" t="s">
         <v>18</v>
       </c>
@@ -6008,15 +6218,14 @@
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
       <c r="O41" s="11"/>
-      <c r="P41" s="20"/>
+      <c r="P41" s="19"/>
     </row>
     <row r="42" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C42" s="18"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="35" t="s">
+      <c r="E42" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="36"/>
+      <c r="F42" s="26"/>
       <c r="G42" s="9" t="s">
         <v>19</v>
       </c>
@@ -6028,15 +6237,14 @@
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
       <c r="O42" s="11"/>
-      <c r="P42" s="20"/>
+      <c r="P42" s="19"/>
     </row>
     <row r="43" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C43" s="18"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="35" t="s">
+      <c r="E43" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F43" s="36"/>
+      <c r="F43" s="26"/>
       <c r="G43" s="12" t="s">
         <v>20</v>
       </c>
@@ -6048,139 +6256,93 @@
       <c r="M43" s="12"/>
       <c r="N43" s="12"/>
       <c r="O43" s="13"/>
-      <c r="P43" s="20"/>
+      <c r="P43" s="19"/>
     </row>
     <row r="44" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C44" s="18"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="41" t="s">
+      <c r="E44" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="42"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
+      <c r="F44" s="28"/>
       <c r="O44" s="14"/>
-      <c r="P44" s="20"/>
+      <c r="P44" s="19"/>
     </row>
     <row r="45" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C45" s="18"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="30"/>
       <c r="O45" s="14"/>
-      <c r="P45" s="20"/>
+      <c r="P45" s="19"/>
     </row>
     <row r="46" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C46" s="18"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="30"/>
       <c r="O46" s="14"/>
-      <c r="P46" s="20"/>
+      <c r="P46" s="19"/>
     </row>
     <row r="47" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C47" s="18"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="30"/>
       <c r="O47" s="14"/>
-      <c r="P47" s="20"/>
+      <c r="P47" s="19"/>
     </row>
     <row r="48" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C48" s="18"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="30"/>
       <c r="O48" s="14"/>
-      <c r="P48" s="20"/>
+      <c r="P48" s="19"/>
     </row>
     <row r="49" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C49" s="18"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="47" t="s">
+      <c r="E49" s="31"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="H49" s="47"/>
+      <c r="H49" s="33"/>
       <c r="I49" s="15"/>
-      <c r="J49" s="47" t="s">
+      <c r="J49" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="K49" s="47"/>
+      <c r="K49" s="33"/>
       <c r="L49" s="15"/>
       <c r="M49" s="15"/>
       <c r="N49" s="15"/>
       <c r="O49" s="16"/>
-      <c r="P49" s="20"/>
+      <c r="P49" s="19"/>
     </row>
     <row r="50" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C50" s="26"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="27"/>
-      <c r="P50" s="28"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="J49:K49"/>
     <mergeCell ref="C2:P3"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="M15:O15"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="G39:O39"/>
     <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="J49:K49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6189,8 +6351,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:O49"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -6206,54 +6368,42 @@
   <sheetData>
     <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="31"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="34"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="39"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="20"/>
+      <c r="O4" s="19"/>
     </row>
     <row r="5" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="18"/>
@@ -6271,64 +6421,35 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="20"/>
+      <c r="O5" s="19"/>
     </row>
     <row r="6" spans="2:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="20"/>
+      <c r="O6" s="19"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="21">
+      <c r="D7" s="4">
         <v>0.3888888888888889</v>
       </c>
-      <c r="E7" s="19"/>
       <c r="F7" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="52" t="s">
+      <c r="I7" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="20"/>
+      <c r="O7" s="19"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19" t="s">
+      <c r="D8" s="4"/>
+      <c r="J8" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="20"/>
+      <c r="O8" s="19"/>
     </row>
     <row r="9" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="18"/>
@@ -6346,447 +6467,155 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="20"/>
+      <c r="O9" s="19"/>
     </row>
     <row r="10" spans="2:15" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="20"/>
+      <c r="D10" s="5"/>
+      <c r="O10" s="19"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="20"/>
+      <c r="O11" s="19"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="20"/>
+      <c r="O12" s="19"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="20"/>
+      <c r="O13" s="19"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="18"/>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="20"/>
+      <c r="O14" s="19"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="20"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="19"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="20"/>
+      <c r="O16" s="19"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="20"/>
+      <c r="O17" s="19"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="20"/>
+      <c r="O18" s="19"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="20"/>
+      <c r="O19" s="19"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="20"/>
+      <c r="O20" s="19"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="20"/>
+      <c r="O21" s="19"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="20"/>
+      <c r="O22" s="19"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="20"/>
+      <c r="O23" s="19"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="20"/>
+      <c r="O24" s="19"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="20"/>
+      <c r="O25" s="19"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="20"/>
+      <c r="O26" s="19"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="20"/>
+      <c r="O27" s="19"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="20"/>
+      <c r="O28" s="19"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="20"/>
+      <c r="O29" s="19"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="20"/>
+      <c r="O30" s="19"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="20"/>
+      <c r="O31" s="19"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B32" s="18"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="20"/>
+      <c r="O32" s="19"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" s="18"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="20"/>
+      <c r="O33" s="19"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34" s="18"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="20"/>
+      <c r="O34" s="19"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="38" t="s">
+      <c r="D35" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="39"/>
-      <c r="F35" s="40" t="s">
+      <c r="E35" s="42"/>
+      <c r="F35" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="20"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="19"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="50" t="s">
+      <c r="D36" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="51"/>
+      <c r="E36" s="45"/>
       <c r="F36" s="9" t="s">
         <v>49</v>
       </c>
@@ -6798,15 +6627,14 @@
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
       <c r="N36" s="11"/>
-      <c r="O36" s="20"/>
+      <c r="O36" s="19"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="50" t="s">
+      <c r="D37" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="51"/>
+      <c r="E37" s="45"/>
       <c r="F37" s="9" t="s">
         <v>50</v>
       </c>
@@ -6818,15 +6646,14 @@
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
       <c r="N37" s="11"/>
-      <c r="O37" s="20"/>
+      <c r="O37" s="19"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="50" t="s">
+      <c r="D38" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="51"/>
+      <c r="E38" s="45"/>
       <c r="F38" s="9" t="s">
         <v>51</v>
       </c>
@@ -6838,15 +6665,14 @@
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="11"/>
-      <c r="O38" s="20"/>
+      <c r="O38" s="19"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B39" s="18"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="51"/>
+      <c r="E39" s="45"/>
       <c r="F39" s="9" t="s">
         <v>52</v>
       </c>
@@ -6858,15 +6684,14 @@
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
       <c r="N39" s="11"/>
-      <c r="O39" s="20"/>
+      <c r="O39" s="19"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B40" s="18"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="50" t="s">
+      <c r="D40" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="51"/>
+      <c r="E40" s="45"/>
       <c r="F40" s="9" t="s">
         <v>53</v>
       </c>
@@ -6878,156 +6703,94 @@
       <c r="L40" s="12"/>
       <c r="M40" s="12"/>
       <c r="N40" s="13"/>
-      <c r="O40" s="20"/>
+      <c r="O40" s="19"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B41" s="18"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="41" t="s">
+      <c r="D41" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="42"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
+      <c r="E41" s="28"/>
       <c r="N41" s="14"/>
-      <c r="O41" s="20"/>
+      <c r="O41" s="19"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="30"/>
       <c r="N42" s="14"/>
-      <c r="O42" s="20"/>
+      <c r="O42" s="19"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="30"/>
       <c r="N43" s="14"/>
-      <c r="O43" s="20"/>
+      <c r="O43" s="19"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="30"/>
       <c r="N44" s="14"/>
-      <c r="O44" s="20"/>
+      <c r="O44" s="19"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B45" s="18"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="30"/>
       <c r="N45" s="14"/>
-      <c r="O45" s="20"/>
+      <c r="O45" s="19"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B46" s="18"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="30"/>
       <c r="N46" s="14"/>
-      <c r="O46" s="20"/>
+      <c r="O46" s="19"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B47" s="18"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
       <c r="H47" s="15"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="47"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
       <c r="K47" s="15"/>
       <c r="L47" s="15"/>
       <c r="M47" s="15"/>
       <c r="N47" s="16"/>
-      <c r="O47" s="20"/>
+      <c r="O47" s="19"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B48" s="18"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="20"/>
+      <c r="O48" s="19"/>
     </row>
     <row r="49" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="26"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="28"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="I47:J47"/>
     <mergeCell ref="B2:O3"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="L15:N15"/>
@@ -7035,11 +6798,6 @@
     <mergeCell ref="F35:N35"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="I47:J47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7048,12 +6806,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:M155"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K16" sqref="K13:M16"/>
+    <sheetView showGridLines="0" topLeftCell="A138" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C142" sqref="C142:M144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7064,34 +6822,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="5" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
@@ -7168,9 +6926,9 @@
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
@@ -7196,27 +6954,27 @@
       </c>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="40" t="s">
+      <c r="D31" s="42"/>
+      <c r="E31" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="39"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="42"/>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="51"/>
+      <c r="D32" s="45"/>
       <c r="E32" s="9" t="s">
         <v>69</v>
       </c>
@@ -7230,11 +6988,11 @@
       <c r="M32" s="11"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="51"/>
-      <c r="E33" s="54" t="s">
+      <c r="D33" s="45"/>
+      <c r="E33" s="24" t="s">
         <v>70</v>
       </c>
       <c r="F33" s="10"/>
@@ -7247,10 +7005,10 @@
       <c r="M33" s="11"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="51"/>
+      <c r="D34" s="45"/>
       <c r="E34" s="9" t="s">
         <v>71</v>
       </c>
@@ -7264,10 +7022,10 @@
       <c r="M34" s="11"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="51"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="12" t="s">
         <v>72</v>
       </c>
@@ -7281,10 +7039,10 @@
       <c r="M35" s="13"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="51"/>
+      <c r="D36" s="45"/>
       <c r="E36" s="12" t="s">
         <v>73</v>
       </c>
@@ -7298,10 +7056,10 @@
       <c r="M36" s="13"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="51"/>
+      <c r="D37" s="45"/>
       <c r="E37" s="9" t="s">
         <v>74</v>
       </c>
@@ -7315,47 +7073,47 @@
       <c r="M37" s="11"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C38" s="41" t="s">
+      <c r="C38" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="42"/>
+      <c r="D38" s="28"/>
       <c r="M38" s="14"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C39" s="43"/>
-      <c r="D39" s="44"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="30"/>
       <c r="M39" s="14"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C40" s="43"/>
-      <c r="D40" s="44"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="30"/>
       <c r="M40" s="14"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C41" s="43"/>
-      <c r="D41" s="44"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="30"/>
       <c r="M41" s="14"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C42" s="43"/>
-      <c r="D42" s="44"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="30"/>
       <c r="J42" t="s">
         <v>25</v>
       </c>
       <c r="M42" s="14"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C43" s="45"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="47" t="s">
+      <c r="C43" s="31"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F43" s="47"/>
+      <c r="F43" s="33"/>
       <c r="G43" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
       <c r="J43" s="15"/>
       <c r="K43" s="15"/>
       <c r="L43" s="15"/>
@@ -7387,27 +7145,27 @@
       </c>
     </row>
     <row r="71" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C71" s="38" t="s">
+      <c r="C71" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D71" s="39"/>
-      <c r="E71" s="40" t="s">
+      <c r="D71" s="42"/>
+      <c r="E71" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="F71" s="40"/>
-      <c r="G71" s="40"/>
-      <c r="H71" s="40"/>
-      <c r="I71" s="40"/>
-      <c r="J71" s="40"/>
-      <c r="K71" s="40"/>
-      <c r="L71" s="40"/>
-      <c r="M71" s="39"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="43"/>
+      <c r="J71" s="43"/>
+      <c r="K71" s="43"/>
+      <c r="L71" s="43"/>
+      <c r="M71" s="42"/>
     </row>
     <row r="72" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C72" s="35" t="s">
+      <c r="C72" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D72" s="36"/>
+      <c r="D72" s="26"/>
       <c r="E72" s="9" t="s">
         <v>33</v>
       </c>
@@ -7421,10 +7179,10 @@
       <c r="M72" s="11"/>
     </row>
     <row r="73" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C73" s="35" t="s">
+      <c r="C73" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D73" s="36"/>
+      <c r="D73" s="26"/>
       <c r="E73" s="12" t="s">
         <v>37</v>
       </c>
@@ -7438,40 +7196,40 @@
       <c r="M73" s="13"/>
     </row>
     <row r="74" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C74" s="41" t="s">
+      <c r="C74" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D74" s="42"/>
+      <c r="D74" s="28"/>
       <c r="M74" s="14"/>
     </row>
     <row r="75" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C75" s="43"/>
-      <c r="D75" s="44"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="30"/>
       <c r="M75" s="14"/>
     </row>
     <row r="76" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C76" s="43"/>
-      <c r="D76" s="44"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="30"/>
       <c r="M76" s="14"/>
     </row>
     <row r="77" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C77" s="43"/>
-      <c r="D77" s="44"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="30"/>
       <c r="M77" s="14"/>
     </row>
     <row r="78" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C78" s="43"/>
-      <c r="D78" s="44"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="30"/>
       <c r="M78" s="14"/>
     </row>
     <row r="79" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C79" s="45"/>
-      <c r="D79" s="46"/>
-      <c r="E79" s="47"/>
-      <c r="F79" s="47"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="33"/>
       <c r="G79" s="15"/>
-      <c r="H79" s="47"/>
-      <c r="I79" s="47"/>
+      <c r="H79" s="33"/>
+      <c r="I79" s="33"/>
       <c r="J79" s="15"/>
       <c r="K79" s="15"/>
       <c r="L79" s="15"/>
@@ -7503,27 +7261,27 @@
       </c>
     </row>
     <row r="106" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C106" s="38" t="s">
+      <c r="C106" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D106" s="39"/>
-      <c r="E106" s="40" t="s">
+      <c r="D106" s="42"/>
+      <c r="E106" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="F106" s="40"/>
-      <c r="G106" s="40"/>
-      <c r="H106" s="40"/>
-      <c r="I106" s="40"/>
-      <c r="J106" s="40"/>
-      <c r="K106" s="40"/>
-      <c r="L106" s="40"/>
-      <c r="M106" s="39"/>
+      <c r="F106" s="43"/>
+      <c r="G106" s="43"/>
+      <c r="H106" s="43"/>
+      <c r="I106" s="43"/>
+      <c r="J106" s="43"/>
+      <c r="K106" s="43"/>
+      <c r="L106" s="43"/>
+      <c r="M106" s="42"/>
     </row>
     <row r="107" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C107" s="35" t="s">
+      <c r="C107" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D107" s="36"/>
+      <c r="D107" s="26"/>
       <c r="E107" s="9" t="s">
         <v>34</v>
       </c>
@@ -7537,10 +7295,10 @@
       <c r="M107" s="11"/>
     </row>
     <row r="108" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C108" s="35" t="s">
+      <c r="C108" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D108" s="36"/>
+      <c r="D108" s="26"/>
       <c r="E108" s="12" t="s">
         <v>37</v>
       </c>
@@ -7554,40 +7312,40 @@
       <c r="M108" s="13"/>
     </row>
     <row r="109" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C109" s="41" t="s">
+      <c r="C109" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D109" s="42"/>
+      <c r="D109" s="28"/>
       <c r="M109" s="14"/>
     </row>
     <row r="110" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C110" s="43"/>
-      <c r="D110" s="44"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="30"/>
       <c r="M110" s="14"/>
     </row>
     <row r="111" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C111" s="43"/>
-      <c r="D111" s="44"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="30"/>
       <c r="M111" s="14"/>
     </row>
     <row r="112" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C112" s="43"/>
-      <c r="D112" s="44"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="30"/>
       <c r="M112" s="14"/>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C113" s="43"/>
-      <c r="D113" s="44"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="30"/>
       <c r="M113" s="14"/>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C114" s="45"/>
-      <c r="D114" s="46"/>
-      <c r="E114" s="47"/>
-      <c r="F114" s="47"/>
+      <c r="C114" s="31"/>
+      <c r="D114" s="32"/>
+      <c r="E114" s="33"/>
+      <c r="F114" s="33"/>
       <c r="G114" s="15"/>
-      <c r="H114" s="47"/>
-      <c r="I114" s="47"/>
+      <c r="H114" s="33"/>
+      <c r="I114" s="33"/>
       <c r="J114" s="15"/>
       <c r="K114" s="15"/>
       <c r="L114" s="15"/>
@@ -7619,27 +7377,27 @@
       </c>
     </row>
     <row r="142" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C142" s="38" t="s">
+      <c r="C142" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D142" s="39"/>
-      <c r="E142" s="40" t="s">
+      <c r="D142" s="42"/>
+      <c r="E142" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="F142" s="40"/>
-      <c r="G142" s="40"/>
-      <c r="H142" s="40"/>
-      <c r="I142" s="40"/>
-      <c r="J142" s="40"/>
-      <c r="K142" s="40"/>
-      <c r="L142" s="40"/>
-      <c r="M142" s="39"/>
+      <c r="F142" s="43"/>
+      <c r="G142" s="43"/>
+      <c r="H142" s="43"/>
+      <c r="I142" s="43"/>
+      <c r="J142" s="43"/>
+      <c r="K142" s="43"/>
+      <c r="L142" s="43"/>
+      <c r="M142" s="42"/>
     </row>
     <row r="143" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C143" s="35" t="s">
+      <c r="C143" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D143" s="36"/>
+      <c r="D143" s="26"/>
       <c r="E143" s="9" t="s">
         <v>34</v>
       </c>
@@ -7653,10 +7411,10 @@
       <c r="M143" s="11"/>
     </row>
     <row r="144" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C144" s="35" t="s">
+      <c r="C144" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D144" s="36"/>
+      <c r="D144" s="26"/>
       <c r="E144" s="12" t="s">
         <v>37</v>
       </c>
@@ -7670,40 +7428,40 @@
       <c r="M144" s="13"/>
     </row>
     <row r="145" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C145" s="41" t="s">
+      <c r="C145" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D145" s="42"/>
+      <c r="D145" s="28"/>
       <c r="M145" s="14"/>
     </row>
     <row r="146" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C146" s="43"/>
-      <c r="D146" s="44"/>
+      <c r="C146" s="29"/>
+      <c r="D146" s="30"/>
       <c r="M146" s="14"/>
     </row>
     <row r="147" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C147" s="43"/>
-      <c r="D147" s="44"/>
+      <c r="C147" s="29"/>
+      <c r="D147" s="30"/>
       <c r="M147" s="14"/>
     </row>
     <row r="148" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C148" s="43"/>
-      <c r="D148" s="44"/>
+      <c r="C148" s="29"/>
+      <c r="D148" s="30"/>
       <c r="M148" s="14"/>
     </row>
     <row r="149" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C149" s="43"/>
-      <c r="D149" s="44"/>
+      <c r="C149" s="29"/>
+      <c r="D149" s="30"/>
       <c r="M149" s="14"/>
     </row>
     <row r="150" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C150" s="45"/>
-      <c r="D150" s="46"/>
-      <c r="E150" s="47"/>
-      <c r="F150" s="47"/>
+      <c r="C150" s="31"/>
+      <c r="D150" s="32"/>
+      <c r="E150" s="33"/>
+      <c r="F150" s="33"/>
       <c r="G150" s="15"/>
-      <c r="H150" s="47"/>
-      <c r="I150" s="47"/>
+      <c r="H150" s="33"/>
+      <c r="I150" s="33"/>
       <c r="J150" s="15"/>
       <c r="K150" s="15"/>
       <c r="L150" s="15"/>
@@ -7728,6 +7486,25 @@
     <row r="155" spans="2:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="C145:D150"/>
+    <mergeCell ref="E150:F150"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C109:D114"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="E142:M142"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:M106"/>
+    <mergeCell ref="E79:F79"/>
     <mergeCell ref="C71:D71"/>
     <mergeCell ref="E71:M71"/>
     <mergeCell ref="B2:M3"/>
@@ -7742,25 +7519,6 @@
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="E106:M106"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C109:D114"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="E142:M142"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="C145:D150"/>
-    <mergeCell ref="E150:F150"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7769,12 +7527,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M15"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B2:M43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7783,34 +7541,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="5" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
@@ -7887,26 +7645,123 @@
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C35" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="42"/>
+      <c r="E35" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="42"/>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C36" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="26"/>
+      <c r="E36" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="11"/>
+    </row>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C37" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="26"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="13"/>
+    </row>
+    <row r="38" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C38" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="28"/>
+      <c r="M38" s="14"/>
+    </row>
+    <row r="39" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C39" s="29"/>
+      <c r="D39" s="30"/>
+      <c r="M39" s="14"/>
+    </row>
+    <row r="40" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C40" s="29"/>
+      <c r="D40" s="30"/>
+      <c r="M40" s="14"/>
+    </row>
+    <row r="41" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C41" s="29"/>
+      <c r="D41" s="30"/>
+      <c r="M41" s="14"/>
+    </row>
+    <row r="42" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C42" s="29"/>
+      <c r="D42" s="30"/>
+      <c r="M42" s="14"/>
+    </row>
+    <row r="43" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C43" s="31"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="9">
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="H43:I43"/>
     <mergeCell ref="B2:M3"/>
     <mergeCell ref="K15:M15"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:M35"/>
+    <mergeCell ref="C36:D36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M15"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="B2:M57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7915,34 +7770,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="5" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
@@ -8019,16 +7874,78 @@
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C34" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="42"/>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C35" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="26"/>
+      <c r="E35" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="11"/>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C36" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="26"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="13"/>
+    </row>
+    <row r="57" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>76</v>
+      </c>
+      <c r="J57" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="C36:D36"/>
     <mergeCell ref="B2:M3"/>
     <mergeCell ref="K15:M15"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:M34"/>
+    <mergeCell ref="C35:D35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>